--- a/tests/EnglishTestEpam2021.xlsx
+++ b/tests/EnglishTestEpam2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="340">
   <si>
     <t>Type in one word to complete the sentence, e.g. My name ... John = My name is John.</t>
   </si>
@@ -66,12 +66,15 @@
     </r>
   </si>
   <si>
-    <t>B1 English Writing - Round 1 Module 1</t>
+    <t>B1</t>
   </si>
   <si>
     <t>A couple of students ran [...] of time and didn't finish the exam paper.</t>
   </si>
   <si>
+    <t>A: Can I ask you a question? B: Sorry, I'm too busy to talk [...] the moment.</t>
+  </si>
+  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -227,6 +230,12 @@
     </r>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>A: I've washed this shirt, but the stain just won't go. B: You should [...] it dry-cleaned. That might help.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -259,9 +268,6 @@
     </r>
   </si>
   <si>
-    <t>B1 English Writing - Round 2 Module 2</t>
-  </si>
-  <si>
     <t>A: So, which dress would you choose? B: I'd [...] for the blue one.</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
     </r>
   </si>
   <si>
+    <t>A: What [...] she look like? B: She's tall and slim.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -459,9 +468,6 @@
     </r>
   </si>
   <si>
-    <t>B1 English Writing - Round 2 Module 3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -606,6 +612,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Can you </t>
     </r>
     <r>
@@ -1130,6 +1143,9 @@
     </r>
   </si>
   <si>
+    <t>I can't come right now, sorry, I'm [...] my car serviced at the moment.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1720,6 +1736,9 @@
     </r>
   </si>
   <si>
+    <t>If they [...] left earlier, they would have arrived on time.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1892,6 +1911,9 @@
     </r>
   </si>
   <si>
+    <t>I'm sorry for what I said, I didn't really [...] it.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2552,6 +2574,9 @@
     </r>
   </si>
   <si>
+    <t>Sadly, just like rainforests, coral reefs are under [...] from human activities.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2575,6 +2600,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">She </t>
     </r>
     <r>
@@ -3289,9 +3321,6 @@
     </r>
   </si>
   <si>
-    <t>B1 English Writing - Round 1,2 Module 1,3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3324,6 +3353,9 @@
     </r>
   </si>
   <si>
+    <t>To be honest, we don't really have time for a small talk. Why don't we get [...] to business?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3551,6 +3583,31 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">When I arrived at the party, most people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[...]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> left.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -4279,12 +4336,18 @@
     <t>A: Where's the library? B: It's (in|on|at|out) the left.</t>
   </si>
   <si>
+    <t>A: Which one do you prefer? B: (Either|Every|Both them|Two). I really don't mind, they are both ok.</t>
+  </si>
+  <si>
     <t>A: Which one would you choose? B: (No|None|Neither|No one). They are both terrible.</t>
   </si>
   <si>
     <t>A: Who is (at|in|on|by) charge of the project? B: I am.</t>
   </si>
   <si>
+    <t>Ann (is a difficulty|has difficulty|finds difficulty|has found difficulties) getting up early in the morning.</t>
+  </si>
+  <si>
     <t>As a rule, the better the quality, the (most|lesser|higher|more) you have to pay.</t>
   </si>
   <si>
@@ -4417,6 +4480,9 @@
     <t>Have you considered (to move|moving|to be moving|move) to Moscow?</t>
   </si>
   <si>
+    <t>He has (acquired|purchased|made|created) a reputation as someone who's difficult to work with.</t>
+  </si>
+  <si>
     <t>He wouldn't work for them even if they (paid|pay|will pay|would pay) him twice his current salary.</t>
   </si>
   <si>
@@ -4775,6 +4841,9 @@
     </r>
   </si>
   <si>
+    <t>It's quite late. We (would better|will better|had better|should better) leave now.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4845,6 +4914,9 @@
     <t>John, you have two brothers and a sister, (don't you|haven't you|have you|aren't you)?</t>
   </si>
   <si>
+    <t>Many entrepreneurs say that (going|deciding|realising|becoming) to start a business wasn't easy.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4947,6 +5019,9 @@
     <t>My friend didn't like the comedy at all, but I thought it was (half-baked|humiliating|hideous|hilarious).</t>
   </si>
   <si>
+    <t>My mother takes great delight (to telling|from telling|to tell|in telling) stories of her youth.</t>
+  </si>
+  <si>
     <t>No matter how well I do in an exam, I always feel later I (must have done|may have done|can't have done|could have done) much better.</t>
   </si>
   <si>
@@ -5196,6 +5271,9 @@
     </r>
   </si>
   <si>
+    <t>Since she joined the company her technical skills (improving|improve|are improving|have improved) a lot.</t>
+  </si>
+  <si>
     <t>The (goodest|bestest|best|betterest) way to get information is online.</t>
   </si>
   <si>
@@ -5533,6 +5611,9 @@
     <t>When we went to Italy last summer, we first (went to sights|went sightseeing|sightsaw|did sights) in Rome and then sunbathed in Rimini.</t>
   </si>
   <si>
+    <t>When you live in a country you soon (pick up|get up|raise up|speak up) the language.</t>
+  </si>
+  <si>
     <t>Which of these cities would you rather (visited|to visit|visiting|visit) for a long weekend: New York, Paris or London?</t>
   </si>
   <si>
@@ -5578,6 +5659,9 @@
   </si>
   <si>
     <t>You (shouldn't|won't|don't have to|mustn't) complete this task today, but we would really appreciate it if you tried.</t>
+  </si>
+  <si>
+    <t>You can easily find any information (over the web|at the web|in the web|on the web).</t>
   </si>
   <si>
     <t>Your wife and kids have never been abroad, (hasn't she|has she|have they|haven't they)?</t>
@@ -5589,8 +5673,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -5632,9 +5716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5643,6 +5733,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5670,11 +5768,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5685,22 +5806,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5716,14 +5831,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -5733,7 +5840,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5747,30 +5854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5791,7 +5875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5803,13 +5899,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5821,7 +5953,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5839,7 +5989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5851,13 +6019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5869,109 +6049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5982,6 +6066,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5996,6 +6104,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6019,40 +6147,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6071,27 +6166,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6103,130 +6187,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6557,10 +6641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -6601,17 +6685,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -6619,7 +6706,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -6627,7 +6714,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -6635,7 +6722,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -6643,7 +6730,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -6668,15 +6755,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -6686,13 +6779,16 @@
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -6702,7 +6798,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -6718,21 +6814,18 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -6740,136 +6833,139 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -6877,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -6885,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6896,29 +6992,23 @@
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6929,39 +7019,48 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -6969,37 +7068,34 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -7007,96 +7103,99 @@
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="5" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -7104,15 +7203,18 @@
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -7120,31 +7222,40 @@
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -7152,23 +7263,26 @@
         <v>1</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -7176,34 +7290,31 @@
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -7211,66 +7322,72 @@
         <v>1</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="5" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -7278,18 +7395,15 @@
         <v>1</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -7297,34 +7411,34 @@
         <v>1</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -7332,29 +7446,26 @@
         <v>1</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7362,10 +7473,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -7373,56 +7484,59 @@
         <v>1</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="5" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -7430,15 +7544,18 @@
         <v>1</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -7446,42 +7563,48 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="5" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="5" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5" t="s">
+    <row r="105" spans="2:3">
+      <c r="B105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -7489,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -7497,18 +7620,15 @@
         <v>1</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="109" spans="2:3">
@@ -7516,29 +7636,23 @@
         <v>1</v>
       </c>
       <c r="C109" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="5" t="s">
+    <row r="111" spans="2:3">
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7546,10 +7660,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="2:3">
@@ -7557,37 +7671,34 @@
         <v>1</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="5" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="5" t="s">
+    <row r="116" spans="2:3">
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7598,23 +7709,29 @@
         <v>1</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="5" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="120" spans="2:3">
@@ -7622,42 +7739,48 @@
         <v>1</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="5" t="s">
+    <row r="122" spans="2:3">
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="5" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="125" spans="2:3">
@@ -7665,15 +7788,15 @@
         <v>1</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="2:3">
@@ -7681,34 +7804,37 @@
         <v>1</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="5" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="131" spans="2:3">
@@ -7716,26 +7842,23 @@
         <v>1</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
       <c r="B133" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="2:3">
@@ -7743,50 +7866,56 @@
         <v>1</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
       <c r="B136" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="2:3">
@@ -7794,15 +7923,15 @@
         <v>1</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -7813,12 +7942,26 @@
         <v>1</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="145" spans="2:3">
@@ -7826,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="2:3">
@@ -7834,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="2:3">
@@ -7842,18 +7985,15 @@
         <v>1</v>
       </c>
       <c r="C147" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="149" spans="2:3">
@@ -7861,212 +8001,177 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="5" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="5" t="s">
+    <row r="156" spans="5:5">
+      <c r="E156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C161" t="s">
-        <v>165</v>
+      <c r="C161" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>166</v>
+        <v>7</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
+      <c r="C164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3">
       <c r="B166" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>170</v>
+      <c r="C166" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
       <c r="B168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C168" t="s">
-        <v>172</v>
+      <c r="C168" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C169" t="s">
-        <v>173</v>
+      <c r="C169" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
+        <v>7</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
-        <v>176</v>
+      <c r="C172" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="2:3">
@@ -8074,23 +8179,26 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>179</v>
+        <v>7</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="2:3">
@@ -8098,15 +8206,18 @@
         <v>1</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="2:3">
@@ -8114,47 +8225,50 @@
         <v>1</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>184</v>
+      <c r="C180" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>185</v>
+      <c r="C181" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>186</v>
+      <c r="C182" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>187</v>
+      <c r="C183" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="2:3">
@@ -8162,26 +8276,23 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
       <c r="B186" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="2:3">
@@ -8189,58 +8300,55 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
-        <v>192</v>
+      <c r="C188" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C190" t="s">
-        <v>194</v>
+      <c r="C190" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
       <c r="B192" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
-        <v>196</v>
+      <c r="C192" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C193" t="s">
-        <v>197</v>
+      <c r="C193" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="2:3">
@@ -8248,15 +8356,15 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="2:3">
@@ -8264,176 +8372,188 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B197" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C198" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3">
+      <c r="C198" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B199" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B200" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
       <c r="B201" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>206</v>
+      <c r="C202" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>207</v>
+        <v>7</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C204" s="5" t="s">
-        <v>208</v>
+      <c r="C204" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B206" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3">
+      <c r="C206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B207" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
       <c r="B209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>213</v>
+        <v>7</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>214</v>
+      <c r="C210" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>215</v>
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C212" s="5" t="s">
-        <v>216</v>
+      <c r="C212" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1" t="s">
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
       <c r="B215" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3">
+      <c r="C215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B216" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>220</v>
+      <c r="C216" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="2:3">
@@ -8441,34 +8561,31 @@
         <v>1</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
       <c r="B219" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C219" t="s">
-        <v>223</v>
+      <c r="C219" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="2:3">
@@ -8476,15 +8593,15 @@
         <v>1</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>226</v>
+      <c r="C222" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="2:3">
@@ -8492,15 +8609,18 @@
         <v>1</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B224" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>228</v>
+      <c r="C224" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="2:3">
@@ -8508,113 +8628,104 @@
         <v>1</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
       <c r="B227" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C227" t="s">
-        <v>231</v>
+      <c r="C227" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
       <c r="B236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="2:3">
@@ -8622,26 +8733,23 @@
         <v>1</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C238" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C238" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
       <c r="B239" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="2:3">
@@ -8649,50 +8757,56 @@
         <v>1</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
       <c r="B241" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3">
+        <v>7</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B242" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>246</v>
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B244" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B245" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="2:3">
@@ -8700,39 +8814,45 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B247" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C247" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
+      <c r="C247" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B248" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C250" t="s">
-        <v>254</v>
+        <v>7</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -8740,10 +8860,10 @@
         <v>4</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="2:3">
@@ -8751,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="2:3">
@@ -8759,50 +8879,59 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B254" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C254" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3">
+      <c r="C254" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B255" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C255" t="s">
-        <v>259</v>
+      <c r="C255" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>260</v>
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
+        <v>7</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B258" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -8813,34 +8942,31 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
       <c r="B260" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C260" t="s">
-        <v>264</v>
+        <v>7</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>266</v>
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="2:3">
@@ -8848,47 +8974,53 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B264" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C265" t="s">
-        <v>269</v>
+        <v>7</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>270</v>
+        <v>7</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3">
+      <c r="C267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B268" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="2:3">
@@ -8896,166 +9028,166 @@
         <v>1</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B270" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>274</v>
+      <c r="C270" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3">
+      <c r="C271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B272" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C275" s="5" t="s">
+      <c r="C275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3">
-      <c r="B277" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3">
-      <c r="B278" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="281" spans="2:3">
       <c r="B281" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
       <c r="B282" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>286</v>
+      <c r="C282" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="2:3">
       <c r="B283" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C283" s="5" t="s">
-        <v>287</v>
+      <c r="C283" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="2:3">
       <c r="B284" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C284" s="5" t="s">
-        <v>288</v>
+      <c r="C284" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="2:3">
       <c r="B285" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="2:3">
       <c r="B286" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C286" t="s">
-        <v>290</v>
+      <c r="C286" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="2:3">
       <c r="B287" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C287" t="s">
-        <v>291</v>
+      <c r="C287" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="2:3">
@@ -9063,18 +9195,15 @@
         <v>1</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
       <c r="B289" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C289" t="s">
-        <v>293</v>
+      <c r="C289" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="2:3">
@@ -9082,31 +9211,34 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B292" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -9117,66 +9249,78 @@
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B296" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>300</v>
+      <c r="C296" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B298" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B299" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C299" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3">
+      <c r="C299" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B300" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="2:3">
@@ -9184,96 +9328,93 @@
         <v>1</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="2:3">
       <c r="B303" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B304" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
       <c r="B305" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>309</v>
+      <c r="C305" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C307" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="308" spans="2:3">
       <c r="B308" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>312</v>
+      <c r="C308" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
       <c r="B310" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C311" t="s">
-        <v>315</v>
+      <c r="C311" s="5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="2:3">
       <c r="B312" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
-        <v>316</v>
+        <v>7</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -9284,42 +9425,39 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
       <c r="B314" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C314" t="s">
-        <v>318</v>
+      <c r="C314" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="2:3">
       <c r="B315" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="2:3">
       <c r="B316" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="2:3">
       <c r="B317" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>321</v>
+      <c r="C317" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="2:3">
@@ -9327,20 +9465,215 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="2:3">
       <c r="B319" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="5" t="s">
         <v>323</v>
       </c>
     </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C142">
-    <sortCondition ref="C2:C142"/>
+  <sortState ref="A157:C340">
+    <sortCondition ref="C157:C340"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/tests/EnglishTestEpam2021.xlsx
+++ b/tests/EnglishTestEpam2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="351">
   <si>
     <t>Type in one word to complete the sentence, e.g. My name ... John = My name is John.</t>
   </si>
@@ -198,6 +198,9 @@
     </r>
   </si>
   <si>
+    <t>A: I'm thinking of going to the cinema. B: If you ask [...], the theatre is much better.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -271,6 +274,12 @@
     <t>A: So, which dress would you choose? B: I'd [...] for the blue one.</t>
   </si>
   <si>
+    <t>A: Thank you so much for your help! B: No [...].</t>
+  </si>
+  <si>
+    <t>A: This child is so naughty. B: I hope he doesn't get [...] trouble again.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1554,6 +1563,9 @@
     </r>
   </si>
   <si>
+    <t>I used to [...] jogging every morning when I was younger.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1911,6 +1923,9 @@
     </r>
   </si>
   <si>
+    <t>I'm quite friendly and sociable and I get [...] well with most people.</t>
+  </si>
+  <si>
     <t>I'm sorry for what I said, I didn't really [...] it.</t>
   </si>
   <si>
@@ -1936,6 +1951,9 @@
     </r>
   </si>
   <si>
+    <t>It [...] my wife half an hour to get to the office.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3583,6 +3601,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When I arrived at the party, most people </t>
     </r>
     <r>
@@ -3693,6 +3718,9 @@
     </r>
   </si>
   <si>
+    <t>Who is the conference organized [...]?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4674,6 +4702,9 @@
     </r>
   </si>
   <si>
+    <t>If you talk about swimming, Tim is not (so good like|as good as|as better as|so better than) Tina.</t>
+  </si>
+  <si>
     <t>If you want to see the dentist, you should phone and (make|do|have|organize) an appointment first.</t>
   </si>
   <si>
@@ -5157,6 +5188,9 @@
     <t>She had a car accident last night because she (was talking|has been talking|had talked|talked) on the phone while driving.</t>
   </si>
   <si>
+    <t>She had an idea and (didn't called|did calling to|called|was calling) her friend.</t>
+  </si>
+  <si>
     <t>She had to go on so many business trips that she quickly got (angry|exhausted|bored|fed up) with travelling.</t>
   </si>
   <si>
@@ -5374,6 +5408,9 @@
     </r>
   </si>
   <si>
+    <t>The police (don't arrest|wasn't arrested|haven't arrested|didn't arrest) the criminal yet.</t>
+  </si>
+  <si>
     <t>The prices are going up all the time and it's not easy to (get by|get through|get off|get around) on an average salary.</t>
   </si>
   <si>
@@ -5495,6 +5532,9 @@
       </rPr>
       <t>|more easily) to use?</t>
     </r>
+  </si>
+  <si>
+    <t>Unfortunately, she can be a bit (polite|impolitely|unpolite|impolite) sometimes.</t>
   </si>
   <si>
     <t>Unfortunately, we had some unexpected problems last month, so now we're working to a very (urgent|strong|tight|short) deadline.</t>
@@ -5672,8 +5712,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -5717,7 +5757,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5730,22 +5778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5753,16 +5785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5791,14 +5816,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -5814,6 +5831,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -5822,9 +5847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5847,7 +5871,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5875,7 +5915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5887,79 +5933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5977,13 +5975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5995,19 +5993,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6019,43 +6059,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6066,21 +6106,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6117,17 +6142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6139,6 +6153,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6166,19 +6195,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6187,130 +6227,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6641,10 +6681,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -6696,7 +6736,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -6736,28 +6779,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -6777,9 +6820,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -6792,27 +6838,33 @@
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -6822,7 +6874,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -6838,18 +6890,15 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>26</v>
@@ -6863,10 +6912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
@@ -6874,7 +6920,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -6882,10 +6931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="2:3">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -6893,7 +6939,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -6901,10 +6950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="2:3">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
@@ -6912,7 +6958,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
@@ -6922,13 +6971,16 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
@@ -6938,15 +6990,18 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>37</v>
@@ -6954,7 +7009,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>38</v>
@@ -6962,15 +7017,18 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>40</v>
@@ -6978,16 +7036,13 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="39" spans="2:3">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7022,10 +7077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="43" spans="2:3">
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
@@ -7033,12 +7085,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="44" spans="2:3">
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>47</v>
@@ -7055,7 +7104,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
@@ -7063,26 +7115,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
@@ -7090,9 +7145,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>53</v>
@@ -7100,7 +7158,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>54</v>
@@ -7108,7 +7166,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
@@ -7119,16 +7177,13 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
@@ -7136,7 +7191,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
@@ -7152,26 +7210,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
@@ -7179,10 +7240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
@@ -7192,13 +7250,16 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
@@ -7211,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>66</v>
@@ -7225,10 +7286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
@@ -7238,7 +7296,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
@@ -7252,9 +7310,9 @@
         <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7266,7 +7324,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
@@ -7276,7 +7337,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
@@ -7285,9 +7346,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B71" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>74</v>
@@ -7295,13 +7359,16 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
@@ -7309,9 +7376,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B74" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>77</v>
@@ -7327,20 +7397,17 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7352,10 +7419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="79" spans="2:3">
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
@@ -7371,42 +7435,54 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B83" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
@@ -7416,7 +7492,7 @@
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>89</v>
@@ -7424,7 +7500,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>90</v>
@@ -7432,7 +7508,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1</v>
@@ -7449,10 +7525,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="90" spans="2:3">
       <c r="B90" s="2" t="s">
         <v>1</v>
       </c>
@@ -7468,10 +7541,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="92" spans="2:3">
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
@@ -7481,24 +7551,24 @@
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="95" spans="2:3">
       <c r="B95" s="2" t="s">
         <v>1</v>
       </c>
@@ -7517,10 +7587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="97" spans="2:3">
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
@@ -7533,7 +7600,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>101</v>
@@ -7547,18 +7614,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="100" spans="2:3">
       <c r="B100" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -7568,7 +7635,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1</v>
@@ -7582,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>106</v>
@@ -7607,7 +7674,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B106" s="2" t="s">
         <v>1</v>
       </c>
@@ -7615,7 +7685,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B107" s="2" t="s">
         <v>1</v>
       </c>
@@ -7623,7 +7696,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B108" s="2" t="s">
         <v>1</v>
       </c>
@@ -7631,15 +7707,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B109" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
@@ -7655,10 +7737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="112" spans="2:3">
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
@@ -7682,10 +7761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="115" spans="2:3">
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
@@ -7701,10 +7777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="117" spans="2:3">
       <c r="B117" s="2" t="s">
         <v>1</v>
       </c>
@@ -7723,12 +7796,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="119" spans="2:3">
       <c r="B119" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>122</v>
@@ -7783,9 +7853,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B125" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>128</v>
@@ -7793,13 +7866,16 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
@@ -7828,7 +7904,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>1</v>
@@ -7871,7 +7947,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
@@ -7882,7 +7958,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>1</v>
@@ -7893,7 +7969,7 @@
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>140</v>
@@ -7907,10 +7983,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="139" spans="2:3">
       <c r="B139" s="2" t="s">
         <v>1</v>
       </c>
@@ -7926,9 +7999,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B141" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>144</v>
@@ -7947,24 +8023,24 @@
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="144" spans="2:3">
       <c r="B144" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B145" s="2" t="s">
         <v>1</v>
       </c>
@@ -7982,13 +8058,16 @@
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B148" s="2" t="s">
         <v>1</v>
       </c>
@@ -7996,11 +8075,14 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B149" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8023,125 +8105,128 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="3" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="153" spans="2:3">
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
       <c r="B157" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B158" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" s="5" t="s">
+    <row r="163" spans="5:5">
+      <c r="E163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="166" spans="2:3">
       <c r="B166" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B167" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B169" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>168</v>
@@ -8149,32 +8234,35 @@
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B173" s="2" t="s">
         <v>1</v>
       </c>
@@ -8182,22 +8270,19 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="174" spans="2:3">
       <c r="B174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8209,12 +8294,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="177" spans="2:3">
       <c r="B177" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>176</v>
@@ -8222,24 +8304,24 @@
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B179" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="180" spans="2:3">
       <c r="B180" s="2" t="s">
         <v>1</v>
       </c>
@@ -8247,7 +8329,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B181" s="2" t="s">
         <v>1</v>
       </c>
@@ -8257,7 +8342,7 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>181</v>
@@ -8267,15 +8352,18 @@
       <c r="B183" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B184" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8283,19 +8371,22 @@
       <c r="B185" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B187" s="2" t="s">
         <v>1</v>
       </c>
@@ -8307,7 +8398,7 @@
       <c r="B188" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8323,15 +8414,15 @@
       <c r="B190" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8339,7 +8430,7 @@
       <c r="B192" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8347,7 +8438,7 @@
       <c r="B193" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8367,28 +8458,28 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B196" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="197" spans="2:3">
       <c r="B197" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>197</v>
@@ -8401,18 +8492,15 @@
       <c r="B199" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="200" spans="2:3">
       <c r="B200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="5" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8428,19 +8516,22 @@
       <c r="B202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B204" s="2" t="s">
         <v>1</v>
       </c>
@@ -8450,7 +8541,7 @@
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>204</v>
@@ -8469,7 +8560,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>1</v>
@@ -8488,21 +8579,27 @@
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="C210" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B211" s="2" t="s">
         <v>1</v>
       </c>
@@ -8512,13 +8609,16 @@
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B213" s="2" t="s">
         <v>1</v>
       </c>
@@ -8526,7 +8626,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B214" s="2" t="s">
         <v>1</v>
       </c>
@@ -8534,10 +8637,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="215" spans="2:3">
       <c r="B215" s="2" t="s">
         <v>1</v>
       </c>
@@ -8545,14 +8645,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="216" spans="2:3">
       <c r="B216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8560,7 +8657,7 @@
       <c r="B217" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8576,15 +8673,15 @@
       <c r="B219" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8592,11 +8689,14 @@
       <c r="B221" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
@@ -8604,22 +8704,22 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B223" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="224" spans="2:3">
       <c r="B224" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -8627,13 +8727,13 @@
       <c r="B225" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>225</v>
@@ -8641,7 +8741,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>226</v>
@@ -8655,14 +8755,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="229" spans="2:3">
       <c r="B229" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8681,7 +8778,7 @@
       <c r="B231" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8695,32 +8792,32 @@
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="234" spans="2:3">
       <c r="B234" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="2:3">
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B236" s="2" t="s">
         <v>1</v>
       </c>
@@ -8736,7 +8833,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="2:3">
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B238" s="2" t="s">
         <v>1</v>
       </c>
@@ -8760,48 +8860,42 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="2:3">
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B241" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="C242" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="244" spans="2:3">
       <c r="B244" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="245" spans="2:3">
       <c r="B245" s="2" t="s">
         <v>1</v>
       </c>
@@ -8809,18 +8903,18 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B246" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="247" spans="2:3">
       <c r="B247" s="2" t="s">
         <v>1</v>
       </c>
@@ -8828,74 +8922,77 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="248" spans="2:3">
       <c r="B248" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B249" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C249" s="5" t="s">
+      <c r="C249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="2:3">
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B250" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="2:3">
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B252" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B253" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="254" spans="2:3">
       <c r="B254" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="C254" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1</v>
@@ -8911,22 +9008,19 @@
       <c r="B256" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="258" spans="2:3">
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
@@ -8936,18 +9030,18 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>259</v>
@@ -8955,31 +9049,37 @@
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C261" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1</v>
@@ -8996,7 +9096,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B266" s="2" t="s">
         <v>7</v>
       </c>
@@ -9004,7 +9107,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B267" s="2" t="s">
         <v>1</v>
       </c>
@@ -9012,10 +9118,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="268" spans="2:3">
       <c r="B268" s="2" t="s">
         <v>7</v>
       </c>
@@ -9025,16 +9128,13 @@
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="270" spans="2:3">
       <c r="B270" s="2" t="s">
         <v>1</v>
       </c>
@@ -9052,7 +9152,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>1</v>
@@ -9063,16 +9163,13 @@
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="274" spans="2:3">
       <c r="B274" s="2" t="s">
         <v>7</v>
       </c>
@@ -9088,7 +9185,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="2:3">
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B276" s="2" t="s">
         <v>7</v>
       </c>
@@ -9096,20 +9196,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="277" spans="2:3">
       <c r="B277" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>1</v>
@@ -9122,15 +9219,18 @@
       <c r="B279" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="2:3">
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9142,11 +9242,14 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="2:3">
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B282" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9160,25 +9263,31 @@
     </row>
     <row r="284" spans="2:3">
       <c r="B284" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="2:3">
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B285" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="2:3">
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B286" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C286" s="5" t="s">
+      <c r="C286" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9192,17 +9301,20 @@
     </row>
     <row r="288" spans="2:3">
       <c r="B288" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="2:3">
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B289" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="5" t="s">
+      <c r="C289" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9216,24 +9328,24 @@
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="292" spans="2:3">
       <c r="B292" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="2:3">
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B293" s="2" t="s">
         <v>1</v>
       </c>
@@ -9241,33 +9353,30 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="294" spans="2:3">
       <c r="B294" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="2:3">
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B295" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="296" spans="2:3">
       <c r="B296" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="5" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9279,14 +9388,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="298" spans="2:3">
       <c r="B298" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9297,16 +9403,13 @@
       <c r="B299" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="C299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="300" spans="2:3">
       <c r="B300" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>299</v>
@@ -9317,7 +9420,7 @@
         <v>4</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>300</v>
@@ -9331,18 +9434,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="2:3">
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B303" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="C303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="304" spans="2:3">
       <c r="B304" s="2" t="s">
         <v>7</v>
       </c>
@@ -9350,7 +9453,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="2:3">
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B305" s="2" t="s">
         <v>1</v>
       </c>
@@ -9362,15 +9468,18 @@
       <c r="B306" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="2:3">
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B307" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="C307" t="s">
         <v>306</v>
       </c>
     </row>
@@ -9381,21 +9490,27 @@
       <c r="B308" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="2:3">
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B309" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="2:3">
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B310" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>309</v>
@@ -9411,7 +9526,7 @@
     </row>
     <row r="312" spans="2:3">
       <c r="B312" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>311</v>
@@ -9422,9 +9537,9 @@
         <v>4</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9432,7 +9547,7 @@
       <c r="B314" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="C314" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9440,19 +9555,22 @@
       <c r="B315" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C315" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="2:3">
       <c r="B316" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="2:3">
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B317" s="2" t="s">
         <v>1</v>
       </c>
@@ -9470,7 +9588,7 @@
     </row>
     <row r="319" spans="2:3">
       <c r="B319" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>318</v>
@@ -9483,7 +9601,7 @@
       <c r="B320" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C320" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9503,18 +9621,18 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="2:3">
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B323" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="C323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="324" spans="2:3">
       <c r="B324" s="2" t="s">
         <v>1</v>
       </c>
@@ -9524,7 +9642,7 @@
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>324</v>
@@ -9535,9 +9653,9 @@
         <v>4</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9545,34 +9663,34 @@
       <c r="B327" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="C327" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C328" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="329" spans="2:3">
       <c r="B329" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="2:3">
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B330" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9580,18 +9698,15 @@
       <c r="B331" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="332" spans="2:3">
       <c r="B332" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9606,20 +9721,20 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="334" spans="2:3">
       <c r="B334" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="2:3">
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B335" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>334</v>
@@ -9627,17 +9742,20 @@
     </row>
     <row r="336" spans="2:3">
       <c r="B336" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="2:3">
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B337" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9645,35 +9763,135 @@
       <c r="B338" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="339" spans="2:3">
       <c r="B339" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>339</v>
       </c>
     </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A157:C340">
-    <sortCondition ref="C157:C340"/>
+  <sortState ref="A2:C158">
+    <sortCondition ref="C2:C158"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
